--- a/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="175">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,277 +43,295 @@
     <t>waste</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>return</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>pay</t>
   </si>
   <si>
-    <t>poorly</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>maybe</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>otherwise</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>instructions</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>glue</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>balls</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>within</t>
+    <t>stay</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>part</t>
   </si>
   <si>
-    <t>hour</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
-    <t>short</t>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>week</t>
   </si>
   <si>
-    <t>doll</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>ball</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>working</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>never</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>though</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>bigger</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>bigger</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>two</t>
+    <t>need</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>put</t>
   </si>
   <si>
-    <t>used</t>
+    <t>son</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>2</t>
   </si>
   <si>
     <t>together</t>
@@ -322,181 +340,202 @@
     <t>size</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>really</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>got</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>bought</t>
+    <t>old</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>challenge</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>expansion</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>elf</t>
-  </si>
-  <si>
     <t>helicopter</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>ages</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>wait</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>lego</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>glad</t>
   </si>
   <si>
     <t>strategy</t>
   </si>
   <si>
-    <t>blast</t>
-  </si>
-  <si>
-    <t>challenge</t>
-  </si>
-  <si>
-    <t>ages</t>
-  </si>
-  <si>
-    <t>story</t>
+    <t>books</t>
+  </si>
+  <si>
+    <t>educational</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>game</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>everyone</t>
+  </si>
+  <si>
     <t>lots</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>everyone</t>
+    <t>fun</t>
   </si>
   <si>
     <t>challenging</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>educational</t>
-  </si>
-  <si>
-    <t>fun</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>book</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>book</t>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>children</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>kids</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>positive</t>
@@ -857,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q105"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,10 +904,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -926,13 +965,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9932432432432432</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D3">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -944,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K3">
-        <v>0.8936170212765957</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -968,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -976,13 +1015,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.967741935483871</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -994,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K4">
-        <v>0.8301886792452831</v>
+        <v>0.8831168831168831</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1026,13 +1065,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9578947368421052</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1044,31 +1083,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L5">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5">
-        <v>0.8279569892473119</v>
-      </c>
-      <c r="L5">
-        <v>77</v>
-      </c>
-      <c r="M5">
-        <v>77</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1076,13 +1115,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9577464788732394</v>
+        <v>0.9611650485436893</v>
       </c>
       <c r="C6">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="D6">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1094,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K6">
-        <v>0.8181818181818182</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L6">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1118,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1126,13 +1165,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.956989247311828</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C7">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1144,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K7">
-        <v>0.8153846153846154</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L7">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1168,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1176,13 +1215,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9563106796116505</v>
+        <v>0.9516129032258065</v>
       </c>
       <c r="C8">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1194,31 +1233,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8">
+        <v>0.859375</v>
+      </c>
+      <c r="L8">
+        <v>55</v>
+      </c>
+      <c r="M8">
+        <v>55</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>9</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8">
-        <v>0.8125</v>
-      </c>
-      <c r="L8">
-        <v>52</v>
-      </c>
-      <c r="M8">
-        <v>52</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1226,13 +1265,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9074074074074074</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C9">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1247,16 +1286,16 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K9">
-        <v>0.8091286307053942</v>
+        <v>0.84375</v>
       </c>
       <c r="L9">
-        <v>390</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>390</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1268,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1276,13 +1315,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8828125</v>
+        <v>0.9408602150537635</v>
       </c>
       <c r="C10">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="D10">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1294,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K10">
-        <v>0.796875</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L10">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1318,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1326,13 +1365,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.873015873015873</v>
+        <v>0.8828125</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1344,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K11">
-        <v>0.7678571428571429</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1368,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1376,13 +1415,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8695652173913043</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1394,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K12">
-        <v>0.763271162123386</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L12">
-        <v>532</v>
+        <v>75</v>
       </c>
       <c r="M12">
-        <v>532</v>
+        <v>75</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1418,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>165</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1426,13 +1465,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.828125</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C13">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D13">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1444,31 +1483,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13">
+        <v>0.7924528301886793</v>
+      </c>
+      <c r="L13">
+        <v>42</v>
+      </c>
+      <c r="M13">
+        <v>42</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>11</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K13">
-        <v>0.7454545454545455</v>
-      </c>
-      <c r="L13">
-        <v>41</v>
-      </c>
-      <c r="M13">
-        <v>41</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1476,13 +1515,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8181818181818182</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="C14">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1497,16 +1536,16 @@
         <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K14">
-        <v>0.7321428571428571</v>
+        <v>0.7883817427385892</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1518,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1526,13 +1565,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8181818181818182</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1544,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K15">
-        <v>0.6956521739130435</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1568,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1576,13 +1615,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8032786885245902</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="C16">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1594,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K16">
-        <v>0.6788990825688074</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L16">
-        <v>222</v>
+        <v>527</v>
       </c>
       <c r="M16">
-        <v>222</v>
+        <v>527</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1618,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>105</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1626,13 +1665,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7962962962962963</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1644,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K17">
-        <v>0.6515151515151515</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1668,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1676,13 +1715,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7914691943127962</v>
+        <v>0.8125</v>
       </c>
       <c r="C18">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1694,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K18">
-        <v>0.6428571428571429</v>
+        <v>0.71875</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1718,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1726,13 +1765,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7710843373493976</v>
+        <v>0.8</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1744,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K19">
-        <v>0.6144578313253012</v>
+        <v>0.7</v>
       </c>
       <c r="L19">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1768,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1776,13 +1815,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7567567567567568</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C20">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1794,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K20">
-        <v>0.6119770303527482</v>
+        <v>0.6941896024464832</v>
       </c>
       <c r="L20">
-        <v>746</v>
+        <v>227</v>
       </c>
       <c r="M20">
-        <v>747</v>
+        <v>227</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1815,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>473</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1826,13 +1865,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.746031746031746</v>
+        <v>0.7835051546391752</v>
       </c>
       <c r="C21">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D21">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1844,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K21">
-        <v>0.5710306406685237</v>
+        <v>0.6807228915662651</v>
       </c>
       <c r="L21">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="M21">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1868,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>154</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1876,13 +1915,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7422680412371134</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="C22">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1894,19 +1933,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K22">
-        <v>0.5609756097560976</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1918,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1926,13 +1965,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7368421052631579</v>
+        <v>0.7630331753554502</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1944,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K23">
-        <v>0.53125</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1968,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1976,13 +2015,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7368421052631579</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1994,19 +2033,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2018,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2026,13 +2065,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7241379310344828</v>
+        <v>0.72</v>
       </c>
       <c r="C25">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2044,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K25">
-        <v>0.4871794871794872</v>
+        <v>0.6072308956450287</v>
       </c>
       <c r="L25">
-        <v>57</v>
+        <v>739</v>
       </c>
       <c r="M25">
-        <v>57</v>
+        <v>742</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2065,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>60</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2076,13 +2115,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7101449275362319</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C26">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D26">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2094,19 +2133,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K26">
-        <v>0.4838709677419355</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2118,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2126,13 +2165,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.7037037037037037</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C27">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D27">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2144,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K27">
-        <v>0.4416666666666667</v>
+        <v>0.5738161559888579</v>
       </c>
       <c r="L27">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="M27">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2168,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>67</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2176,13 +2215,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6964285714285714</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C28">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2194,19 +2233,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K28">
-        <v>0.4098360655737705</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L28">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2218,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2247,16 +2286,16 @@
         <v>25</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K29">
-        <v>0.3968253968253968</v>
+        <v>0.52</v>
       </c>
       <c r="L29">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2268,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>114</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2276,13 +2315,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6857142857142857</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2294,19 +2333,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K30">
-        <v>0.3804347826086957</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2318,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2326,13 +2365,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6485148514851485</v>
+        <v>0.6867469879518072</v>
       </c>
       <c r="C31">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="D31">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2344,19 +2383,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K31">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2368,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2376,13 +2415,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6405797101449275</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C32">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2394,19 +2433,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K32">
-        <v>0.3788174139051332</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="L32">
-        <v>583</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>585</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2415,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>956</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2426,13 +2465,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6302521008403361</v>
+        <v>0.675</v>
       </c>
       <c r="C33">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2444,19 +2483,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K33">
-        <v>0.3773584905660378</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2468,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2476,13 +2515,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.625</v>
+        <v>0.6435643564356436</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2494,19 +2533,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K34">
-        <v>0.3614035087719298</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L34">
-        <v>412</v>
+        <v>87</v>
       </c>
       <c r="M34">
-        <v>413</v>
+        <v>87</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2515,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>728</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2526,37 +2565,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6158730158730159</v>
+        <v>0.6434782608695652</v>
       </c>
       <c r="C35">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="D35">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="E35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K35">
-        <v>0.336</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="L35">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2568,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2576,13 +2615,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5789473684210527</v>
+        <v>0.640625</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2594,19 +2633,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K36">
-        <v>0.3188405797101449</v>
+        <v>0.4249512670565302</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>654</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>656</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2615,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>47</v>
+        <v>885</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2626,13 +2665,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.578125</v>
+        <v>0.6203703703703703</v>
       </c>
       <c r="C37">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D37">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2644,19 +2683,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K37">
-        <v>0.2467532467532468</v>
+        <v>0.4</v>
       </c>
       <c r="L37">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M37">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2668,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>116</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2676,13 +2715,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5540540540540541</v>
+        <v>0.6</v>
       </c>
       <c r="C38">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2694,19 +2733,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K38">
-        <v>0.1794871794871795</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2718,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2726,13 +2765,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5476190476190477</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2744,19 +2783,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K39">
-        <v>0.1748251748251748</v>
+        <v>0.3688524590163935</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2768,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2776,13 +2815,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5428571428571428</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2794,19 +2833,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K40">
-        <v>0.15625</v>
+        <v>0.3511852502194908</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>402</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2815,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>108</v>
+        <v>739</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2826,13 +2865,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5333333333333333</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2844,31 +2883,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K41">
-        <v>0.15</v>
+        <v>0.34</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>136</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2876,13 +2915,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5238095238095238</v>
+        <v>0.5569620253164557</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2894,31 +2933,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K42">
-        <v>0.1397849462365591</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L42">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>320</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2926,7 +2965,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5172413793103449</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C43">
         <v>15</v>
@@ -2944,31 +2983,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K43">
-        <v>0.1393728222996516</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="L43">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M43">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>247</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2976,13 +3015,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2994,31 +3033,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K44">
-        <v>0.1243243243243243</v>
+        <v>0.288</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N44">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>162</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3026,13 +3065,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C45">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3044,31 +3083,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K45">
-        <v>0.1183800623052959</v>
+        <v>0.2661290322580645</v>
       </c>
       <c r="L45">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M45">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N45">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O45">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>283</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3076,13 +3115,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.5</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3094,31 +3133,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K46">
-        <v>0.1093117408906883</v>
+        <v>0.2342657342657343</v>
       </c>
       <c r="L46">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N46">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3126,13 +3165,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.475</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="C47">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D47">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3144,31 +3183,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K47">
-        <v>0.103960396039604</v>
+        <v>0.2237762237762238</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N47">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>181</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3176,13 +3215,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4719101123595505</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="C48">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D48">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3197,28 +3236,28 @@
         <v>47</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K48">
-        <v>0.07785234899328859</v>
+        <v>0.1796875</v>
       </c>
       <c r="L48">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="M48">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="N48">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>687</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3226,13 +3265,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4615384615384616</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C49">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D49">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3244,31 +3283,31 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K49">
-        <v>0.05612244897959184</v>
+        <v>0.15527950310559</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M49">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N49">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>370</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3276,13 +3315,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4583333333333333</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3294,31 +3333,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K50">
-        <v>0.0427807486631016</v>
+        <v>0.1474530831099196</v>
       </c>
       <c r="L50">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M50">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="N50">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="O50">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>537</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3326,13 +3365,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4464285714285715</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C51">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D51">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3344,31 +3383,31 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K51">
-        <v>0.04100227790432802</v>
+        <v>0.144578313253012</v>
       </c>
       <c r="L51">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M51">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N51">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.3100000000000001</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>421</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3376,13 +3415,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.4335443037974683</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C52">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="D52">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3394,7 +3433,31 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>179</v>
+        <v>19</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K52">
+        <v>0.1367521367521368</v>
+      </c>
+      <c r="L52">
+        <v>16</v>
+      </c>
+      <c r="M52">
+        <v>16</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3402,13 +3465,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.4117647058823529</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="C53">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3420,7 +3483,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K53">
+        <v>0.1269349845201238</v>
+      </c>
+      <c r="L53">
+        <v>41</v>
+      </c>
+      <c r="M53">
+        <v>42</v>
+      </c>
+      <c r="N53">
+        <v>0.98</v>
+      </c>
+      <c r="O53">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3428,13 +3515,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.4054054054054054</v>
+        <v>0.4655172413793103</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D54">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3446,7 +3533,31 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K54">
+        <v>0.124331550802139</v>
+      </c>
+      <c r="L54">
+        <v>93</v>
+      </c>
+      <c r="M54">
+        <v>97</v>
+      </c>
+      <c r="N54">
+        <v>0.96</v>
+      </c>
+      <c r="O54">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>655</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3454,25 +3565,49 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.4</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="C55">
+        <v>35</v>
+      </c>
+      <c r="D55">
+        <v>35</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>43</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K55">
+        <v>0.109452736318408</v>
+      </c>
+      <c r="L55">
         <v>22</v>
       </c>
-      <c r="D55">
-        <v>22</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>33</v>
+      <c r="M55">
+        <v>26</v>
+      </c>
+      <c r="N55">
+        <v>0.85</v>
+      </c>
+      <c r="O55">
+        <v>0.15</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3480,25 +3615,49 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3958333333333333</v>
+        <v>0.4367088607594937</v>
       </c>
       <c r="C56">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="E56">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>29</v>
+        <v>178</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K56">
+        <v>0.09139784946236559</v>
+      </c>
+      <c r="L56">
+        <v>17</v>
+      </c>
+      <c r="M56">
+        <v>17</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3506,13 +3665,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3833333333333334</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="C57">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D57">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3524,7 +3683,31 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57">
+        <v>0.08905852417302799</v>
+      </c>
+      <c r="L57">
+        <v>35</v>
+      </c>
+      <c r="M57">
+        <v>38</v>
+      </c>
+      <c r="N57">
+        <v>0.92</v>
+      </c>
+      <c r="O57">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3532,13 +3715,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3720930232558139</v>
+        <v>0.3931623931623932</v>
       </c>
       <c r="C58">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D58">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3550,7 +3733,31 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>54</v>
+        <v>71</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K58">
+        <v>0.08275862068965517</v>
+      </c>
+      <c r="L58">
+        <v>24</v>
+      </c>
+      <c r="M58">
+        <v>24</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3558,13 +3765,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.3675213675213675</v>
+        <v>0.37</v>
       </c>
       <c r="C59">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D59">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3576,7 +3783,31 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>74</v>
+        <v>126</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K59">
+        <v>0.03220035778175313</v>
+      </c>
+      <c r="L59">
+        <v>18</v>
+      </c>
+      <c r="M59">
+        <v>24</v>
+      </c>
+      <c r="N59">
+        <v>0.75</v>
+      </c>
+      <c r="O59">
+        <v>0.25</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>541</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3584,13 +3815,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.358695652173913</v>
+        <v>0.3659420289855073</v>
       </c>
       <c r="C60">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D60">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3602,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3610,13 +3841,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.3387978142076503</v>
+        <v>0.3604651162790697</v>
       </c>
       <c r="C61">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D61">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3628,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>121</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3636,13 +3867,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.33</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="C62">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3654,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>134</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3662,13 +3893,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.3076923076923077</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C63">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D63">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3680,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3688,13 +3919,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.3015873015873016</v>
+        <v>0.3387978142076503</v>
       </c>
       <c r="C64">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D64">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3706,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>44</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3714,13 +3945,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2786885245901639</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C65">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D65">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3732,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3740,22 +3971,22 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2592592592592592</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C66">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D66">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E66">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>80</v>
@@ -3766,25 +3997,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2544378698224852</v>
+        <v>0.3070866141732284</v>
       </c>
       <c r="C67">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D67">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E67">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>126</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3792,25 +4023,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.253968253968254</v>
+        <v>0.3070866141732284</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3818,25 +4049,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.2511144130757801</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="C69">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="D69">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="E69">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>504</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3844,13 +4075,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.2307692307692308</v>
+        <v>0.2744479495268139</v>
       </c>
       <c r="C70">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D70">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3862,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>90</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3870,13 +4101,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2214285714285714</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C71">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D71">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3888,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>109</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3896,25 +4127,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2112676056338028</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="C72">
+        <v>16</v>
+      </c>
+      <c r="D72">
+        <v>16</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72">
         <v>45</v>
-      </c>
-      <c r="D72">
-        <v>46</v>
-      </c>
-      <c r="E72">
-        <v>0.02</v>
-      </c>
-      <c r="F72">
-        <v>0.98</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3922,25 +4153,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2017291066282421</v>
+        <v>0.2588235294117647</v>
       </c>
       <c r="C73">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D73">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E73">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F73">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>277</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3948,13 +4179,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1959459459459459</v>
+        <v>0.25</v>
       </c>
       <c r="C74">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D74">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3966,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>119</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3974,25 +4205,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1924290220820189</v>
+        <v>0.245575221238938</v>
       </c>
       <c r="C75">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D75">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>256</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4000,13 +4231,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1811023622047244</v>
+        <v>0.2364864864864865</v>
       </c>
       <c r="C76">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D76">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4018,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4026,25 +4257,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1785714285714286</v>
+        <v>0.2354694485842027</v>
       </c>
       <c r="C77">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="D77">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>69</v>
+        <v>513</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4052,13 +4283,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1784140969162996</v>
+        <v>0.2342857142857143</v>
       </c>
       <c r="C78">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D78">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4070,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>373</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4078,25 +4309,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1725190839694656</v>
+        <v>0.2276657060518732</v>
       </c>
       <c r="C79">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D79">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>542</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4104,13 +4335,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1640625</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C80">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D80">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -4122,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>107</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4130,13 +4361,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1612903225806452</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C81">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D81">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4148,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>156</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4156,25 +4387,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.158974358974359</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C82">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D82">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E82">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F82">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4182,13 +4413,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1363636363636364</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C83">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D83">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4200,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4208,25 +4439,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1314285714285714</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="C84">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D84">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4234,25 +4465,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1210526315789474</v>
+        <v>0.167741935483871</v>
       </c>
       <c r="C85">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D85">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E85">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F85">
-        <v>0.96</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4260,25 +4491,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1146496815286624</v>
+        <v>0.1653905053598775</v>
       </c>
       <c r="C86">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="D86">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>139</v>
+        <v>545</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4286,25 +4517,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1142857142857143</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="C87">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4312,25 +4543,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1126373626373626</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="C88">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D88">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E88">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>323</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4338,25 +4569,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.111913357400722</v>
+        <v>0.1510416666666667</v>
       </c>
       <c r="C89">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D89">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E89">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>246</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4364,25 +4595,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1066666666666667</v>
+        <v>0.1502347417840376</v>
       </c>
       <c r="C90">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D90">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4390,13 +4621,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09895833333333333</v>
+        <v>0.15</v>
       </c>
       <c r="C91">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D91">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4408,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>173</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4416,25 +4647,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.0979020979020979</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="C92">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D92">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E92">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>387</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4442,25 +4673,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09659090909090909</v>
+        <v>0.1381818181818182</v>
       </c>
       <c r="C93">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D93">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E93">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="F93">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>318</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4468,25 +4699,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.09523809523809523</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="C94">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D94">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E94">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>171</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4494,25 +4725,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08947368421052632</v>
+        <v>0.1186046511627907</v>
       </c>
       <c r="C95">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D95">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E95">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F95">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>173</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4520,25 +4751,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.08762886597938144</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="C96">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D96">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4546,25 +4777,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.07116104868913857</v>
+        <v>0.1056338028169014</v>
       </c>
       <c r="C97">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D97">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>248</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4572,25 +4803,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.07000000000000001</v>
+        <v>0.1045197740112994</v>
       </c>
       <c r="C98">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D98">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E98">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F98">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4598,25 +4829,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.06097560975609756</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C99">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D99">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E99">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>231</v>
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4624,25 +4855,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.0449678800856531</v>
+        <v>0.09398496240601503</v>
       </c>
       <c r="C100">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D100">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E100">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="F100">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>446</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4650,25 +4881,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04455445544554455</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C101">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D101">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E101">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F101">
-        <v>0.9299999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>579</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4676,25 +4907,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.04176334106728538</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="C102">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D102">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E102">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F102">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>413</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4702,25 +4933,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03764705882352941</v>
+        <v>0.07308970099667775</v>
       </c>
       <c r="C103">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D103">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E103">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>409</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4728,25 +4959,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.0316055625790139</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="C104">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D104">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E104">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="F104">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>766</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4754,25 +4985,155 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.02976190476190476</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="C105">
+        <v>24</v>
+      </c>
+      <c r="D105">
+        <v>32</v>
+      </c>
+      <c r="E105">
+        <v>0.25</v>
+      </c>
+      <c r="F105">
+        <v>0.75</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>0.04491725768321513</v>
+      </c>
+      <c r="C106">
+        <v>19</v>
+      </c>
+      <c r="D106">
+        <v>25</v>
+      </c>
+      <c r="E106">
+        <v>0.24</v>
+      </c>
+      <c r="F106">
+        <v>0.76</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>0.04285714285714286</v>
+      </c>
+      <c r="C107">
         <v>15</v>
       </c>
-      <c r="D105">
-        <v>15</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>489</v>
+      <c r="D107">
+        <v>16</v>
+      </c>
+      <c r="E107">
+        <v>0.06</v>
+      </c>
+      <c r="F107">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>0.04152823920265781</v>
+      </c>
+      <c r="C108">
+        <v>25</v>
+      </c>
+      <c r="D108">
+        <v>31</v>
+      </c>
+      <c r="E108">
+        <v>0.19</v>
+      </c>
+      <c r="F108">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>0.0356234096692112</v>
+      </c>
+      <c r="C109">
+        <v>28</v>
+      </c>
+      <c r="D109">
+        <v>36</v>
+      </c>
+      <c r="E109">
+        <v>0.22</v>
+      </c>
+      <c r="F109">
+        <v>0.78</v>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>0.024745269286754</v>
+      </c>
+      <c r="C110">
+        <v>17</v>
+      </c>
+      <c r="D110">
+        <v>22</v>
+      </c>
+      <c r="E110">
+        <v>0.23</v>
+      </c>
+      <c r="F110">
+        <v>0.77</v>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
